--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H2">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I2">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J2">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.109780333333333</v>
+        <v>0.052798</v>
       </c>
       <c r="N2">
-        <v>3.329341</v>
+        <v>0.158394</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1385348856125547</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1385348856125547</v>
       </c>
       <c r="Q2">
-        <v>211.5958166841847</v>
+        <v>9.261372839533999</v>
       </c>
       <c r="R2">
-        <v>1904.362350157662</v>
+        <v>83.352355555806</v>
       </c>
       <c r="S2">
-        <v>0.2001939625490346</v>
+        <v>0.02126657935927538</v>
       </c>
       <c r="T2">
-        <v>0.2001939625490346</v>
+        <v>0.02126657935927539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>531.1103823333333</v>
+        <v>175.411433</v>
       </c>
       <c r="H3">
-        <v>1593.331147</v>
+        <v>526.234299</v>
       </c>
       <c r="I3">
-        <v>0.5576551459273178</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J3">
-        <v>0.5576551459273177</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.109780333333333</v>
+        <v>0.328319</v>
       </c>
       <c r="N3">
-        <v>3.329341</v>
+        <v>0.9849570000000001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8614651143874453</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8614651143874454</v>
       </c>
       <c r="Q3">
-        <v>589.4158571426807</v>
+        <v>57.590906271127</v>
       </c>
       <c r="R3">
-        <v>5304.742714284127</v>
+        <v>518.318156440143</v>
       </c>
       <c r="S3">
-        <v>0.5576551459273178</v>
+        <v>0.1322440635754751</v>
       </c>
       <c r="T3">
-        <v>0.5576551459273177</v>
+        <v>0.1322440635754752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.5583673333333</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H4">
-        <v>454.675102</v>
+        <v>1593.331147</v>
       </c>
       <c r="I4">
-        <v>0.1591332164896969</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J4">
-        <v>0.1591332164896969</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.109780333333333</v>
+        <v>0.052798</v>
       </c>
       <c r="N4">
-        <v>3.329341</v>
+        <v>0.158394</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1385348856125547</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1385348856125547</v>
       </c>
       <c r="Q4">
-        <v>168.1964954186425</v>
+        <v>28.04156596643533</v>
       </c>
       <c r="R4">
-        <v>1513.768458767782</v>
+        <v>252.374093697918</v>
       </c>
       <c r="S4">
-        <v>0.1591332164896969</v>
+        <v>0.06439090600455287</v>
       </c>
       <c r="T4">
-        <v>0.1591332164896969</v>
+        <v>0.06439090600455288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,46 +723,294 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.06597733333334</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H5">
-        <v>237.197932</v>
+        <v>1593.331147</v>
       </c>
       <c r="I5">
-        <v>0.08301767503395074</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J5">
-        <v>0.08301767503395074</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.109780333333333</v>
+        <v>0.328319</v>
       </c>
       <c r="N5">
-        <v>3.329341</v>
+        <v>0.9849570000000001</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.8614651143874453</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8614651143874454</v>
       </c>
       <c r="Q5">
-        <v>87.74586668031245</v>
+        <v>174.3736296172977</v>
       </c>
       <c r="R5">
-        <v>789.7128001228122</v>
+        <v>1569.362666555679</v>
       </c>
       <c r="S5">
-        <v>0.08301767503395074</v>
+        <v>0.4004083084304101</v>
       </c>
       <c r="T5">
-        <v>0.08301767503395074</v>
+        <v>0.4004083084304103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>360.115397</v>
+      </c>
+      <c r="H6">
+        <v>1080.346191</v>
+      </c>
+      <c r="I6">
+        <v>0.3151536087398187</v>
+      </c>
+      <c r="J6">
+        <v>0.3151536087398188</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.052798</v>
+      </c>
+      <c r="N6">
+        <v>0.158394</v>
+      </c>
+      <c r="O6">
+        <v>0.1385348856125547</v>
+      </c>
+      <c r="P6">
+        <v>0.1385348856125547</v>
+      </c>
+      <c r="Q6">
+        <v>19.013372730806</v>
+      </c>
+      <c r="R6">
+        <v>171.120354577254</v>
+      </c>
+      <c r="S6">
+        <v>0.0436597691371546</v>
+      </c>
+      <c r="T6">
+        <v>0.04365976913715461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>360.115397</v>
+      </c>
+      <c r="H7">
+        <v>1080.346191</v>
+      </c>
+      <c r="I7">
+        <v>0.3151536087398187</v>
+      </c>
+      <c r="J7">
+        <v>0.3151536087398188</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.328319</v>
+      </c>
+      <c r="N7">
+        <v>0.9849570000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.8614651143874453</v>
+      </c>
+      <c r="P7">
+        <v>0.8614651143874454</v>
+      </c>
+      <c r="Q7">
+        <v>118.232727027643</v>
+      </c>
+      <c r="R7">
+        <v>1064.094543248787</v>
+      </c>
+      <c r="S7">
+        <v>0.2714938396026642</v>
+      </c>
+      <c r="T7">
+        <v>0.2714938396026642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>76.02905266666666</v>
+      </c>
+      <c r="H8">
+        <v>228.087158</v>
+      </c>
+      <c r="I8">
+        <v>0.06653653389046771</v>
+      </c>
+      <c r="J8">
+        <v>0.06653653389046772</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.052798</v>
+      </c>
+      <c r="N8">
+        <v>0.158394</v>
+      </c>
+      <c r="O8">
+        <v>0.1385348856125547</v>
+      </c>
+      <c r="P8">
+        <v>0.1385348856125547</v>
+      </c>
+      <c r="Q8">
+        <v>4.014181922694666</v>
+      </c>
+      <c r="R8">
+        <v>36.127637304252</v>
+      </c>
+      <c r="S8">
+        <v>0.009217631111571811</v>
+      </c>
+      <c r="T8">
+        <v>0.009217631111571813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>76.02905266666666</v>
+      </c>
+      <c r="H9">
+        <v>228.087158</v>
+      </c>
+      <c r="I9">
+        <v>0.06653653389046771</v>
+      </c>
+      <c r="J9">
+        <v>0.06653653389046772</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.328319</v>
+      </c>
+      <c r="N9">
+        <v>0.9849570000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.8614651143874453</v>
+      </c>
+      <c r="P9">
+        <v>0.8614651143874454</v>
+      </c>
+      <c r="Q9">
+        <v>24.96178254246733</v>
+      </c>
+      <c r="R9">
+        <v>224.656042882206</v>
+      </c>
+      <c r="S9">
+        <v>0.0573189027788959</v>
+      </c>
+      <c r="T9">
+        <v>0.05731890277889592</v>
       </c>
     </row>
   </sheetData>
